--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Android\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>This is my test suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is my sweet addition that only I may have. </t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3"/>
+  <dimension ref="C3:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -357,6 +360,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -24,12 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>This is my test suite</t>
   </si>
   <si>
     <t xml:space="preserve">This is my sweet addition that only I may have. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is my tester addition to be merged up into master. </t>
   </si>
 </sst>
 </file>
@@ -347,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:C4"/>
+  <dimension ref="C3:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,6 +368,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -24,15 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>This is my test suite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is my sweet addition that only I may have. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is my tester addition to be merged up into master. </t>
   </si>
 </sst>
 </file>
@@ -350,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:C5"/>
+  <dimension ref="C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,16 +357,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>This is my test suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is my addition. </t>
   </si>
 </sst>
 </file>
@@ -344,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3"/>
+  <dimension ref="C3:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -357,6 +360,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>This is my test suite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is my addition. </t>
   </si>
 </sst>
 </file>
@@ -347,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:C4"/>
+  <dimension ref="C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,11 +357,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>This is my test suite</t>
+  </si>
+  <si>
+    <t>I am changing Line 5 - Love Tester 1</t>
   </si>
 </sst>
 </file>
@@ -344,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3"/>
+  <dimension ref="C3:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -357,6 +360,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>This is my test suite</t>
+  </si>
+  <si>
+    <t>I am changing Line 4 - Love Tester 2</t>
   </si>
 </sst>
 </file>
@@ -344,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3"/>
+  <dimension ref="C3:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -357,6 +360,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>This is my test suite</t>
-  </si>
-  <si>
-    <t>I am changing Line 5 - Love Tester 1</t>
   </si>
 </sst>
 </file>
@@ -347,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:C5"/>
+  <dimension ref="C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -360,11 +357,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -24,16 +24,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>This is my test suite</t>
+  </si>
+  <si>
+    <t>Tester A</t>
+  </si>
+  <si>
+    <t>Tester B</t>
+  </si>
+  <si>
+    <t>Tester C</t>
+  </si>
+  <si>
+    <t>Do this</t>
+  </si>
+  <si>
+    <t>Do that</t>
+  </si>
+  <si>
+    <t>And this!</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,16 +65,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,12 +103,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,20 +413,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3"/>
+  <dimension ref="C3:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="K7:L7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E9 I7:I9 M7:M9">
+      <formula1>$H$3:$H$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>This is my test suite</t>
   </si>
@@ -125,14 +125,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +416,7 @@
   <dimension ref="C3:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,84 +425,90 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="2" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="2" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="2" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="K8" s="2" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="2" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="K9" s="2" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>This is my test suite</t>
   </si>
@@ -125,14 +125,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +416,7 @@
   <dimension ref="C3:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,84 +425,90 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="2" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="2" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="G8" s="2" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="K8" s="2" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="2" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="K9" s="2" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>This is my test suite</t>
   </si>
@@ -416,7 +416,7 @@
   <dimension ref="C3:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,9 +463,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="K7" s="4" t="s">
         <v>4</v>
       </c>
@@ -482,9 +480,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="I8" s="2"/>
       <c r="K8" s="4" t="s">
         <v>5</v>
       </c>
@@ -501,9 +497,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="K9" s="4" t="s">
         <v>6</v>
       </c>

--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -23,8 +23,34 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="schema" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Android\test\schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" name="schema1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Android\test\schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" name="schema2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Android\test\schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="4" name="schema3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Android\test\schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="5" name="schema4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Android\test\schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="6" name="schema5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Android\test\schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="7" name="schema6" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Android\test\schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>This is my test suite</t>
   </si>
@@ -51,6 +77,18 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>How about this?</t>
+  </si>
+  <si>
+    <t>Or…this!!!</t>
   </si>
 </sst>
 </file>
@@ -95,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -118,26 +156,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -148,6 +361,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema7">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="TestBook1">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="record" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="TestCase" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="PassFail" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="7" Name="TestBook1_Map" RootElement="TestBook1" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="false" Append="true" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="D7:D12" tableType="xml" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7" connectionId="7">
+  <autoFilter ref="D7:D12"/>
+  <tableColumns count="1">
+    <tableColumn id="1" uniqueName="PassFail" name="Pass/Fail">
+      <xmlColumnPr mapId="7" xpath="/TestBook1/record/PassFail" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C7:C12" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3" connectionId="7">
+  <autoFilter ref="C7:C12"/>
+  <tableColumns count="1">
+    <tableColumn id="1" uniqueName="TestCase" name="Test Cases" dataDxfId="2">
+      <xmlColumnPr mapId="7" xpath="/TestBook1/record/TestCase" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,118 +676,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M9"/>
+  <dimension ref="C3:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" customWidth="1"/>
+    <col min="16" max="17" width="5.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H4" s="3" t="s">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="5" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="5" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="4" t="s">
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="K7" s="4" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="2"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="2"/>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="4" t="s">
+      <c r="D9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="4" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="2"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="2"/>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="4" t="s">
+      <c r="D10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="4" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K7:L7"/>
+  <mergeCells count="9">
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E9 I7:I9 M7:M9">
-      <formula1>$H$3:$H$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12 L8:L10 H8:H10">
+      <formula1>$G$3:$G$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/TestBook1.xlsx
+++ b/TestBook1.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>This is my test suite</t>
   </si>
@@ -85,17 +85,53 @@
     <t>Test Cases</t>
   </si>
   <si>
-    <t>How about this?</t>
-  </si>
-  <si>
-    <t>Or…this!!!</t>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Pass / Fail</t>
+  </si>
+  <si>
+    <t>Start the game</t>
+  </si>
+  <si>
+    <t>Press some buttons</t>
+  </si>
+  <si>
+    <t>Write some words</t>
+  </si>
+  <si>
+    <t>Make some money</t>
+  </si>
+  <si>
+    <t>Buy a game</t>
+  </si>
+  <si>
+    <t>Alll</t>
+  </si>
+  <si>
+    <t>rgh</t>
+  </si>
+  <si>
+    <t>hba</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>dg</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>tgn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +154,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +176,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -157,7 +207,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -169,27 +221,66 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -204,89 +295,137 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <top style="thin">
           <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -296,59 +435,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -390,26 +477,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="D7:D12" tableType="xml" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7" connectionId="7">
-  <autoFilter ref="D7:D12"/>
-  <tableColumns count="1">
-    <tableColumn id="1" uniqueName="PassFail" name="Pass/Fail">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="C13:D30" tableType="xml" totalsRowShown="0" headerRowDxfId="2" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3" connectionId="7">
+  <autoFilter ref="C13:D30"/>
+  <tableColumns count="2">
+    <tableColumn id="1" uniqueName="TestCase" name="Test Case" dataDxfId="0">
+      <xmlColumnPr mapId="7" xpath="/TestBook1/record/TestCase" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="PassFail" name="Pass / Fail" dataDxfId="1">
       <xmlColumnPr mapId="7" xpath="/TestBook1/record/PassFail" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="C7:C12" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3" connectionId="7">
-  <autoFilter ref="C7:C12"/>
-  <tableColumns count="1">
-    <tableColumn id="1" uniqueName="TestCase" name="Test Cases" dataDxfId="2">
-      <xmlColumnPr mapId="7" xpath="/TestBook1/record/TestCase" xmlDataType="string"/>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -676,162 +754,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:Q12"/>
+  <dimension ref="C3:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" customWidth="1"/>
-    <col min="16" max="17" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="18" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="G4" s="3" t="s">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-    </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="7"/>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="G9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="21"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J8:K8"/>
+  <mergeCells count="13">
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12 L8:L10 H8:H10">
-      <formula1>$G$3:$G$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E10 I8:I10 M8:M10 H14:H18 D15:D19 D21:D30">
+      <formula1>$H$3:$H$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>